--- a/notes.xlsx
+++ b/notes.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>jose chaves</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>no presento</t>
   </si>
 </sst>
 </file>
@@ -284,6 +287,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -296,7 +300,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,10 +767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,11 +787,11 @@
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="13"/>
@@ -814,9 +817,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="20"/>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
@@ -840,7 +843,7 @@
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -869,7 +872,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -888,7 +891,7 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="21">
+      <c r="I4" s="17">
         <v>10</v>
       </c>
       <c r="J4" s="7">
@@ -896,7 +899,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -916,7 +919,7 @@
       <c r="G5" s="6">
         <v>5</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="17">
         <v>5</v>
       </c>
       <c r="I5" s="6"/>
@@ -925,7 +928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -933,13 +936,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <v>12</v>
       </c>
-      <c r="E6" s="21">
-        <v>20</v>
-      </c>
-      <c r="F6" s="21">
+      <c r="E6" s="17">
+        <v>20</v>
+      </c>
+      <c r="F6" s="17">
         <v>18</v>
       </c>
       <c r="G6" s="6">
@@ -952,7 +955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -960,17 +963,17 @@
         <v>13</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="21">
-        <v>15</v>
-      </c>
-      <c r="E7" s="21">
-        <v>20</v>
-      </c>
-      <c r="F7" s="21">
+      <c r="D7" s="17">
+        <v>15</v>
+      </c>
+      <c r="E7" s="17">
+        <v>20</v>
+      </c>
+      <c r="F7" s="17">
         <v>20</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="21">
+      <c r="H7" s="17">
         <v>5</v>
       </c>
       <c r="I7" s="6"/>
@@ -979,7 +982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -987,26 +990,26 @@
         <v>19</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="21">
-        <v>5</v>
-      </c>
-      <c r="E8" s="21">
-        <v>10</v>
-      </c>
-      <c r="F8" s="21">
-        <v>5</v>
+      <c r="D8" s="17">
+        <v>15</v>
+      </c>
+      <c r="E8" s="17">
+        <v>20</v>
+      </c>
+      <c r="F8" s="17">
+        <v>10</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6">
+      <c r="I8" s="17">
         <v>5</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1014,73 +1017,115 @@
         <v>19</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="21">
-        <v>5</v>
-      </c>
-      <c r="E9" s="21">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="D9" s="17">
+        <v>10</v>
+      </c>
+      <c r="E9" s="17">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>10</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6">
-        <v>10</v>
-      </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="7">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="17">
+        <v>15</v>
+      </c>
+      <c r="E10" s="17">
+        <v>20</v>
+      </c>
+      <c r="F10" s="17">
+        <v>20</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="17">
+        <v>5</v>
+      </c>
       <c r="J10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="17">
+        <v>15</v>
+      </c>
+      <c r="E11" s="17">
+        <v>20</v>
+      </c>
+      <c r="F11" s="17">
+        <v>20</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="17">
+        <v>10</v>
+      </c>
       <c r="J11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="17">
+        <v>15</v>
+      </c>
+      <c r="E12" s="17">
+        <v>20</v>
+      </c>
+      <c r="F12" s="17">
+        <v>20</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="17">
+        <v>10</v>
+      </c>
       <c r="J12" s="7">
         <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="17">
+        <v>10</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1088,14 +1133,21 @@
       <c r="I13" s="6"/>
       <c r="J13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12">
+        <v>10</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1103,16 +1155,19 @@
       <c r="I14" s="12"/>
       <c r="J14" s="3">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J16">
         <f t="shared" si="0"/>
         <v>0</v>
